--- a/tests/testthat/STUDY001_TE.xlsx
+++ b/tests/testthat/STUDY001_TE.xlsx
@@ -6,13 +6,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TE" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
@@ -20,12 +21,96 @@
     <t xml:space="preserve">DOMAIN</t>
   </si>
   <si>
+    <t xml:space="preserve">ARMCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAETORD</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETCD</t>
   </si>
   <si>
     <t xml:space="preserve">ELEMENT</t>
   </si>
   <si>
+    <t xml:space="preserve">TABRANCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATRANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDY001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREENING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOLLOW-UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET10</t>
+  </si>
+  <si>
     <t xml:space="preserve">TESTRL</t>
   </si>
   <si>
@@ -35,18 +120,9 @@
     <t xml:space="preserve">TEDUR</t>
   </si>
   <si>
-    <t xml:space="preserve">STUDY001</t>
-  </si>
-  <si>
     <t xml:space="preserve">TE</t>
   </si>
   <si>
-    <t xml:space="preserve">ET1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCREENING</t>
-  </si>
-  <si>
     <t xml:space="preserve">Informed consent</t>
   </si>
   <si>
@@ -56,43 +132,31 @@
     <t xml:space="preserve">P7D</t>
   </si>
   <si>
-    <t xml:space="preserve">ET2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First dose of study drug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of treatment period</t>
+    <t xml:space="preserve">First dose A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of A</t>
   </si>
   <si>
     <t xml:space="preserve">P14D</t>
   </si>
   <si>
-    <t xml:space="preserve">ET3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREATMENT C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOLLOW-UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start of follow-up period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of follow-up period</t>
+    <t xml:space="preserve">Start washout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of washout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First dose B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of follow-up</t>
   </si>
   <si>
     <t xml:space="preserve">P21D</t>
@@ -456,59 +520,385 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -517,21 +907,21 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -540,21 +930,21 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -563,13 +953,13 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
